--- a/AppTec/practice/TeamC/excelファイル/画面仕様,DB(0623).xlsx
+++ b/AppTec/practice/TeamC/excelファイル/画面仕様,DB(0623).xlsx
@@ -3199,44 +3199,98 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="22" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3247,15 +3301,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -3264,12 +3309,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="36" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3295,14 +3334,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3310,56 +3346,20 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="41" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3379,16 +3379,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="62" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="63" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="11" borderId="63" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3400,7 +3394,19 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="63" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3410,9 +3416,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="54" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="52" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3436,13 +3439,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="49" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="48" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="47" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="58" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -22371,7 +22371,7 @@
   <dimension ref="B2:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="74" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -22527,7 +22527,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M34"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
@@ -23192,7 +23192,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P46"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A35" zoomScale="85" zoomScaleNormal="78" zoomScaleSheetLayoutView="85" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="78" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
@@ -23205,16 +23205,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="145"/>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-      <c r="I1" s="146"/>
-      <c r="J1" s="147"/>
+      <c r="A1" s="114"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="116"/>
       <c r="L1" s="11"/>
       <c r="M1" s="11"/>
     </row>
@@ -23241,20 +23241,20 @@
       <c r="L3" s="5"/>
     </row>
     <row r="4" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A4" s="122" t="s">
+      <c r="A4" s="140" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="123"/>
+      <c r="B4" s="141"/>
       <c r="C4" s="15" t="s">
         <v>1</v>
       </c>
       <c r="F4" s="5"/>
     </row>
     <row r="5" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A5" s="136" t="s">
+      <c r="A5" s="149" t="s">
         <v>21</v>
       </c>
-      <c r="B5" s="137"/>
+      <c r="B5" s="150"/>
       <c r="C5" s="5"/>
       <c r="J5" s="5"/>
       <c r="L5" s="1"/>
@@ -23264,27 +23264,27 @@
       <c r="P5" s="3"/>
     </row>
     <row r="6" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A6" s="134" t="s">
+      <c r="A6" s="147" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="135"/>
+      <c r="B6" s="148"/>
       <c r="C6" s="5"/>
       <c r="I6" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="115" t="s">
+      <c r="L6" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="111"/>
-      <c r="N6" s="111"/>
-      <c r="O6" s="111"/>
-      <c r="P6" s="116"/>
+      <c r="M6" s="112"/>
+      <c r="N6" s="112"/>
+      <c r="O6" s="112"/>
+      <c r="P6" s="113"/>
     </row>
     <row r="7" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A7" s="132" t="s">
+      <c r="A7" s="145" t="s">
         <v>23</v>
       </c>
-      <c r="B7" s="133"/>
+      <c r="B7" s="146"/>
       <c r="C7" s="5"/>
       <c r="J7" s="5"/>
       <c r="L7" s="4"/>
@@ -23298,10 +23298,10 @@
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="F8" s="5"/>
-      <c r="H8" s="130" t="s">
+      <c r="H8" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="131"/>
+      <c r="I8" s="138"/>
       <c r="J8" s="5"/>
       <c r="L8" s="4"/>
       <c r="M8" s="22" t="s">
@@ -23330,19 +23330,19 @@
       <c r="P9" s="9"/>
     </row>
     <row r="10" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A10" s="113" t="s">
+      <c r="A10" s="159" t="s">
         <v>3</v>
       </c>
-      <c r="B10" s="114"/>
+      <c r="B10" s="160"/>
       <c r="C10" s="15" t="s">
         <v>2</v>
       </c>
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
-      <c r="H10" s="130" t="s">
+      <c r="H10" s="137" t="s">
         <v>25</v>
       </c>
-      <c r="I10" s="131"/>
+      <c r="I10" s="138"/>
       <c r="J10" s="5"/>
     </row>
     <row r="11" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
@@ -23361,73 +23361,73 @@
       <c r="M11" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="129" t="s">
+      <c r="N11" s="144" t="s">
         <v>32</v>
       </c>
-      <c r="O11" s="121"/>
-      <c r="P11" s="121"/>
+      <c r="O11" s="139"/>
+      <c r="P11" s="139"/>
     </row>
     <row r="12" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A12" s="112" t="s">
+      <c r="A12" s="158" t="s">
         <v>39</v>
       </c>
-      <c r="B12" s="112"/>
-      <c r="C12" s="112"/>
-      <c r="D12" s="112"/>
+      <c r="B12" s="158"/>
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
     </row>
     <row r="13" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B13" s="151" t="s">
+      <c r="B13" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="141"/>
-      <c r="D13" s="152"/>
-      <c r="E13" s="140" t="s">
+      <c r="C13" s="121"/>
+      <c r="D13" s="122"/>
+      <c r="E13" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="F13" s="141"/>
-      <c r="G13" s="141"/>
-      <c r="H13" s="141"/>
-      <c r="I13" s="142"/>
+      <c r="F13" s="121"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="121"/>
+      <c r="I13" s="124"/>
     </row>
     <row r="14" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B14" s="153" t="s">
+      <c r="B14" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C14" s="154"/>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="154"/>
-      <c r="H14" s="154"/>
-      <c r="I14" s="155"/>
+      <c r="C14" s="126"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="126"/>
+      <c r="I14" s="127"/>
       <c r="L14" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="M14" s="138" t="s">
+      <c r="M14" s="151" t="s">
         <v>29</v>
       </c>
-      <c r="N14" s="139"/>
+      <c r="N14" s="152"/>
       <c r="O14" s="11"/>
     </row>
     <row r="15" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B15" s="115"/>
-      <c r="C15" s="111"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="111"/>
-      <c r="G15" s="111"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="116"/>
+      <c r="B15" s="111"/>
+      <c r="C15" s="112"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
+      <c r="G15" s="112"/>
+      <c r="H15" s="112"/>
+      <c r="I15" s="113"/>
     </row>
     <row r="16" spans="1:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B16" s="115"/>
-      <c r="C16" s="111"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="111"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="116"/>
+      <c r="B16" s="111"/>
+      <c r="C16" s="112"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
+      <c r="G16" s="112"/>
+      <c r="H16" s="112"/>
+      <c r="I16" s="113"/>
       <c r="L16" s="24" t="s">
         <v>9</v>
       </c>
@@ -23437,80 +23437,80 @@
       <c r="N16" s="11"/>
     </row>
     <row r="17" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B17" s="115"/>
-      <c r="C17" s="111"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="111"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
-      <c r="I17" s="116"/>
+      <c r="B17" s="111"/>
+      <c r="C17" s="112"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="112"/>
+      <c r="H17" s="112"/>
+      <c r="I17" s="113"/>
     </row>
     <row r="18" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B18" s="157" t="s">
+      <c r="B18" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="109"/>
-      <c r="D18" s="158"/>
-      <c r="E18" s="120" t="s">
+      <c r="C18" s="130"/>
+      <c r="D18" s="131"/>
+      <c r="E18" s="132" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="109"/>
-      <c r="G18" s="109"/>
-      <c r="H18" s="110"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="133"/>
       <c r="I18" s="19" t="s">
         <v>9</v>
       </c>
       <c r="L18" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="M18" s="127" t="s">
+      <c r="M18" s="142" t="s">
         <v>31</v>
       </c>
-      <c r="N18" s="128"/>
+      <c r="N18" s="143"/>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="124" t="s">
+      <c r="B19" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="125"/>
-      <c r="D19" s="125"/>
-      <c r="E19" s="125"/>
-      <c r="F19" s="125"/>
-      <c r="G19" s="125"/>
-      <c r="H19" s="125"/>
-      <c r="I19" s="126"/>
+      <c r="C19" s="109"/>
+      <c r="D19" s="109"/>
+      <c r="E19" s="109"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="109"/>
+      <c r="H19" s="109"/>
+      <c r="I19" s="110"/>
     </row>
     <row r="20" spans="2:16" s="27" customFormat="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="115"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
-      <c r="I20" s="116"/>
+      <c r="B20" s="111"/>
+      <c r="C20" s="112"/>
+      <c r="D20" s="112"/>
+      <c r="E20" s="112"/>
+      <c r="F20" s="112"/>
+      <c r="G20" s="112"/>
+      <c r="H20" s="112"/>
+      <c r="I20" s="113"/>
     </row>
     <row r="21" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B21" s="115"/>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="111"/>
-      <c r="G21" s="111"/>
-      <c r="H21" s="111"/>
-      <c r="I21" s="116"/>
+      <c r="B21" s="111"/>
+      <c r="C21" s="112"/>
+      <c r="D21" s="112"/>
+      <c r="E21" s="112"/>
+      <c r="F21" s="112"/>
+      <c r="G21" s="112"/>
+      <c r="H21" s="112"/>
+      <c r="I21" s="113"/>
     </row>
     <row r="22" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B22" s="159" t="s">
+      <c r="B22" s="134" t="s">
         <v>263</v>
       </c>
-      <c r="C22" s="160"/>
-      <c r="D22" s="160"/>
-      <c r="E22" s="160"/>
-      <c r="F22" s="160"/>
-      <c r="G22" s="160"/>
-      <c r="H22" s="161"/>
+      <c r="C22" s="135"/>
+      <c r="D22" s="135"/>
+      <c r="E22" s="135"/>
+      <c r="F22" s="135"/>
+      <c r="G22" s="135"/>
+      <c r="H22" s="136"/>
       <c r="I22" s="19" t="s">
         <v>11</v>
       </c>
@@ -23521,16 +23521,16 @@
       <c r="P22" s="5"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="124" t="s">
+      <c r="B23" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="125"/>
-      <c r="D23" s="125"/>
-      <c r="E23" s="125"/>
-      <c r="F23" s="125"/>
-      <c r="G23" s="125"/>
-      <c r="H23" s="125"/>
-      <c r="I23" s="126"/>
+      <c r="C23" s="109"/>
+      <c r="D23" s="109"/>
+      <c r="E23" s="109"/>
+      <c r="F23" s="109"/>
+      <c r="G23" s="109"/>
+      <c r="H23" s="109"/>
+      <c r="I23" s="110"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="102"/>
@@ -23538,14 +23538,14 @@
       <c r="P23" s="99"/>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="115"/>
-      <c r="C24" s="111"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="111"/>
-      <c r="G24" s="111"/>
-      <c r="H24" s="111"/>
-      <c r="I24" s="116"/>
+      <c r="B24" s="111"/>
+      <c r="C24" s="112"/>
+      <c r="D24" s="112"/>
+      <c r="E24" s="112"/>
+      <c r="F24" s="112"/>
+      <c r="G24" s="112"/>
+      <c r="H24" s="112"/>
+      <c r="I24" s="113"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -23553,14 +23553,14 @@
       <c r="P24" s="5"/>
     </row>
     <row r="25" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B25" s="115"/>
-      <c r="C25" s="111"/>
-      <c r="D25" s="111"/>
-      <c r="E25" s="111"/>
-      <c r="F25" s="111"/>
-      <c r="G25" s="111"/>
-      <c r="H25" s="111"/>
-      <c r="I25" s="116"/>
+      <c r="B25" s="111"/>
+      <c r="C25" s="112"/>
+      <c r="D25" s="112"/>
+      <c r="E25" s="112"/>
+      <c r="F25" s="112"/>
+      <c r="G25" s="112"/>
+      <c r="H25" s="112"/>
+      <c r="I25" s="113"/>
       <c r="L25" s="5"/>
       <c r="M25" s="5"/>
       <c r="N25" s="5"/>
@@ -23568,17 +23568,17 @@
       <c r="P25" s="5"/>
     </row>
     <row r="26" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B26" s="117" t="s">
+      <c r="B26" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="C26" s="118"/>
-      <c r="D26" s="143"/>
-      <c r="E26" s="144" t="s">
+      <c r="C26" s="154"/>
+      <c r="D26" s="155"/>
+      <c r="E26" s="156" t="s">
         <v>36</v>
       </c>
-      <c r="F26" s="109"/>
-      <c r="G26" s="109"/>
-      <c r="H26" s="110"/>
+      <c r="F26" s="130"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="133"/>
       <c r="I26" s="24" t="s">
         <v>9</v>
       </c>
@@ -23589,101 +23589,101 @@
       <c r="P26" s="5"/>
     </row>
     <row r="27" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B27" s="124" t="s">
+      <c r="B27" s="108" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="125"/>
-      <c r="D27" s="125"/>
-      <c r="E27" s="125"/>
-      <c r="F27" s="125"/>
-      <c r="G27" s="125"/>
-      <c r="H27" s="125"/>
-      <c r="I27" s="126"/>
+      <c r="C27" s="109"/>
+      <c r="D27" s="109"/>
+      <c r="E27" s="109"/>
+      <c r="F27" s="109"/>
+      <c r="G27" s="109"/>
+      <c r="H27" s="109"/>
+      <c r="I27" s="110"/>
       <c r="L27" t="s">
         <v>262</v>
       </c>
     </row>
     <row r="28" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B28" s="115"/>
-      <c r="C28" s="111"/>
-      <c r="D28" s="111"/>
-      <c r="E28" s="111"/>
-      <c r="F28" s="111"/>
-      <c r="G28" s="111"/>
-      <c r="H28" s="111"/>
-      <c r="I28" s="116"/>
-      <c r="L28" s="130" t="s">
+      <c r="B28" s="111"/>
+      <c r="C28" s="112"/>
+      <c r="D28" s="112"/>
+      <c r="E28" s="112"/>
+      <c r="F28" s="112"/>
+      <c r="G28" s="112"/>
+      <c r="H28" s="112"/>
+      <c r="I28" s="113"/>
+      <c r="L28" s="137" t="s">
         <v>20</v>
       </c>
-      <c r="M28" s="131"/>
+      <c r="M28" s="138"/>
       <c r="N28" s="14" t="s">
         <v>261</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="115"/>
-      <c r="C29" s="111"/>
-      <c r="D29" s="111"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="111"/>
-      <c r="G29" s="111"/>
-      <c r="H29" s="111"/>
-      <c r="I29" s="116"/>
+      <c r="B29" s="111"/>
+      <c r="C29" s="112"/>
+      <c r="D29" s="112"/>
+      <c r="E29" s="112"/>
+      <c r="F29" s="112"/>
+      <c r="G29" s="112"/>
+      <c r="H29" s="112"/>
+      <c r="I29" s="113"/>
       <c r="N29" s="101" t="s">
         <v>264</v>
       </c>
     </row>
     <row r="30" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B30" s="115"/>
-      <c r="C30" s="111"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="111"/>
-      <c r="F30" s="111"/>
-      <c r="G30" s="111"/>
-      <c r="H30" s="111"/>
-      <c r="I30" s="116"/>
+      <c r="B30" s="111"/>
+      <c r="C30" s="112"/>
+      <c r="D30" s="112"/>
+      <c r="E30" s="112"/>
+      <c r="F30" s="112"/>
+      <c r="G30" s="112"/>
+      <c r="H30" s="112"/>
+      <c r="I30" s="113"/>
     </row>
     <row r="31" spans="2:16" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B31" s="117" t="s">
+      <c r="B31" s="153" t="s">
         <v>18</v>
       </c>
-      <c r="C31" s="118"/>
-      <c r="D31" s="119"/>
-      <c r="E31" s="120" t="s">
+      <c r="C31" s="154"/>
+      <c r="D31" s="161"/>
+      <c r="E31" s="132" t="s">
         <v>35</v>
       </c>
-      <c r="F31" s="109"/>
-      <c r="G31" s="109"/>
-      <c r="H31" s="110"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="130"/>
+      <c r="H31" s="133"/>
       <c r="I31" s="20" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="124"/>
-      <c r="C32" s="125"/>
-      <c r="D32" s="125"/>
-      <c r="E32" s="125"/>
-      <c r="F32" s="125"/>
-      <c r="G32" s="125"/>
-      <c r="H32" s="125"/>
-      <c r="I32" s="126"/>
-      <c r="L32" s="121" t="s">
+      <c r="B32" s="108"/>
+      <c r="C32" s="109"/>
+      <c r="D32" s="109"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="109"/>
+      <c r="H32" s="109"/>
+      <c r="I32" s="110"/>
+      <c r="L32" s="139" t="s">
         <v>33</v>
       </c>
-      <c r="M32" s="121"/>
+      <c r="M32" s="139"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="115" t="s">
+      <c r="B33" s="111" t="s">
         <v>27</v>
       </c>
-      <c r="C33" s="111"/>
-      <c r="D33" s="111"/>
-      <c r="E33" s="111"/>
-      <c r="F33" s="111"/>
-      <c r="G33" s="111"/>
-      <c r="H33" s="111"/>
-      <c r="I33" s="116"/>
+      <c r="C33" s="112"/>
+      <c r="D33" s="112"/>
+      <c r="E33" s="112"/>
+      <c r="F33" s="112"/>
+      <c r="G33" s="112"/>
+      <c r="H33" s="112"/>
+      <c r="I33" s="113"/>
     </row>
     <row r="34" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="72"/>
@@ -23706,26 +23706,26 @@
       <c r="I35" s="70"/>
     </row>
     <row r="36" spans="1:14" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="111" t="s">
+      <c r="B36" s="112" t="s">
         <v>26</v>
       </c>
-      <c r="C36" s="111"/>
-      <c r="D36" s="111"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="111"/>
-      <c r="G36" s="111"/>
-      <c r="H36" s="111"/>
-      <c r="I36" s="111"/>
+      <c r="C36" s="112"/>
+      <c r="D36" s="112"/>
+      <c r="E36" s="112"/>
+      <c r="F36" s="112"/>
+      <c r="G36" s="112"/>
+      <c r="H36" s="112"/>
+      <c r="I36" s="112"/>
       <c r="M36" s="11" t="s">
         <v>37</v>
       </c>
       <c r="N36" s="11"/>
     </row>
     <row r="37" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A37" s="156" t="s">
+      <c r="A37" s="128" t="s">
         <v>28</v>
       </c>
-      <c r="B37" s="156"/>
+      <c r="B37" s="128"/>
       <c r="C37" s="8"/>
       <c r="D37" s="8"/>
       <c r="G37" s="8"/>
@@ -23738,123 +23738,146 @@
     </row>
     <row r="38" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="71"/>
-      <c r="B38" s="151" t="s">
+      <c r="B38" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="141"/>
-      <c r="D38" s="152"/>
-      <c r="E38" s="140" t="s">
+      <c r="C38" s="121"/>
+      <c r="D38" s="122"/>
+      <c r="E38" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="F38" s="141"/>
-      <c r="G38" s="141"/>
-      <c r="H38" s="141"/>
-      <c r="I38" s="142"/>
+      <c r="F38" s="121"/>
+      <c r="G38" s="121"/>
+      <c r="H38" s="121"/>
+      <c r="I38" s="124"/>
     </row>
     <row r="39" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="71"/>
-      <c r="B39" s="153" t="s">
+      <c r="B39" s="125" t="s">
         <v>6</v>
       </c>
-      <c r="C39" s="154"/>
-      <c r="D39" s="154"/>
-      <c r="E39" s="154"/>
-      <c r="F39" s="154"/>
-      <c r="G39" s="154"/>
-      <c r="H39" s="154"/>
-      <c r="I39" s="155"/>
+      <c r="C39" s="126"/>
+      <c r="D39" s="126"/>
+      <c r="E39" s="126"/>
+      <c r="F39" s="126"/>
+      <c r="G39" s="126"/>
+      <c r="H39" s="126"/>
+      <c r="I39" s="127"/>
     </row>
     <row r="40" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="71"/>
-      <c r="B40" s="115"/>
-      <c r="C40" s="111"/>
-      <c r="D40" s="111"/>
-      <c r="E40" s="111"/>
-      <c r="F40" s="111"/>
-      <c r="G40" s="111"/>
-      <c r="H40" s="111"/>
-      <c r="I40" s="116"/>
+      <c r="B40" s="111"/>
+      <c r="C40" s="112"/>
+      <c r="D40" s="112"/>
+      <c r="E40" s="112"/>
+      <c r="F40" s="112"/>
+      <c r="G40" s="112"/>
+      <c r="H40" s="112"/>
+      <c r="I40" s="113"/>
     </row>
     <row r="41" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="71"/>
-      <c r="B41" s="115"/>
-      <c r="C41" s="111"/>
-      <c r="D41" s="111"/>
-      <c r="E41" s="111"/>
-      <c r="F41" s="111"/>
-      <c r="G41" s="111"/>
-      <c r="H41" s="111"/>
-      <c r="I41" s="116"/>
+      <c r="B41" s="111"/>
+      <c r="C41" s="112"/>
+      <c r="D41" s="112"/>
+      <c r="E41" s="112"/>
+      <c r="F41" s="112"/>
+      <c r="G41" s="112"/>
+      <c r="H41" s="112"/>
+      <c r="I41" s="113"/>
     </row>
     <row r="42" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A42" s="71"/>
-      <c r="B42" s="115"/>
-      <c r="C42" s="111"/>
-      <c r="D42" s="111"/>
-      <c r="E42" s="111"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="111"/>
-      <c r="I42" s="116"/>
+      <c r="B42" s="111"/>
+      <c r="C42" s="112"/>
+      <c r="D42" s="112"/>
+      <c r="E42" s="112"/>
+      <c r="F42" s="112"/>
+      <c r="G42" s="112"/>
+      <c r="H42" s="112"/>
+      <c r="I42" s="113"/>
     </row>
     <row r="43" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A43" s="71"/>
-      <c r="B43" s="157" t="s">
+      <c r="B43" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="C43" s="109"/>
-      <c r="D43" s="158"/>
-      <c r="E43" s="108" t="s">
+      <c r="C43" s="130"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="157" t="s">
         <v>8</v>
       </c>
-      <c r="F43" s="109"/>
-      <c r="G43" s="109"/>
-      <c r="H43" s="110"/>
+      <c r="F43" s="130"/>
+      <c r="G43" s="130"/>
+      <c r="H43" s="133"/>
       <c r="I43" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:14" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="71"/>
-      <c r="B44" s="124" t="s">
+      <c r="B44" s="108" t="s">
         <v>10</v>
       </c>
-      <c r="C44" s="125"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="126"/>
+      <c r="C44" s="109"/>
+      <c r="D44" s="109"/>
+      <c r="E44" s="109"/>
+      <c r="F44" s="109"/>
+      <c r="G44" s="109"/>
+      <c r="H44" s="109"/>
+      <c r="I44" s="110"/>
     </row>
     <row r="45" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A45" s="71"/>
-      <c r="B45" s="115"/>
-      <c r="C45" s="111"/>
-      <c r="D45" s="111"/>
-      <c r="E45" s="111"/>
-      <c r="F45" s="111"/>
-      <c r="G45" s="111"/>
-      <c r="H45" s="111"/>
-      <c r="I45" s="116"/>
+      <c r="B45" s="111"/>
+      <c r="C45" s="112"/>
+      <c r="D45" s="112"/>
+      <c r="E45" s="112"/>
+      <c r="F45" s="112"/>
+      <c r="G45" s="112"/>
+      <c r="H45" s="112"/>
+      <c r="I45" s="113"/>
     </row>
     <row r="46" spans="1:14" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A46" s="71"/>
-      <c r="B46" s="148" t="s">
+      <c r="B46" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="C46" s="149"/>
-      <c r="D46" s="149"/>
-      <c r="E46" s="149"/>
-      <c r="F46" s="149"/>
-      <c r="G46" s="149"/>
-      <c r="H46" s="150"/>
+      <c r="C46" s="118"/>
+      <c r="D46" s="118"/>
+      <c r="E46" s="118"/>
+      <c r="F46" s="118"/>
+      <c r="G46" s="118"/>
+      <c r="H46" s="119"/>
       <c r="I46" s="18" t="s">
         <v>11</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="39">
+    <mergeCell ref="E43:H43"/>
+    <mergeCell ref="B36:I36"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="B33:I33"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="E31:H31"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="B27:I30"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="N11:P11"/>
+    <mergeCell ref="L28:M28"/>
+    <mergeCell ref="H8:I8"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="L6:P6"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="E13:I13"/>
+    <mergeCell ref="B32:I32"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="E26:H26"/>
     <mergeCell ref="B44:I45"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="B46:H46"/>
@@ -23871,29 +23894,6 @@
     <mergeCell ref="B43:D43"/>
     <mergeCell ref="H10:I10"/>
     <mergeCell ref="B13:D13"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="B27:I30"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="N11:P11"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="H8:I8"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="L6:P6"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="E13:I13"/>
-    <mergeCell ref="B32:I32"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="E26:H26"/>
-    <mergeCell ref="E43:H43"/>
-    <mergeCell ref="B36:I36"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="B33:I33"/>
-    <mergeCell ref="B31:D31"/>
-    <mergeCell ref="E31:H31"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -23909,7 +23909,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A17" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="61" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" zoomScalePageLayoutView="61" workbookViewId="0">
       <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
@@ -23924,16 +23924,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="114" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="147"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="116"/>
       <c r="I1" s="13"/>
       <c r="J1" s="13"/>
     </row>
@@ -23951,27 +23951,27 @@
     </row>
     <row r="3" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B4" s="151" t="s">
+      <c r="B4" s="120" t="s">
         <v>137</v>
       </c>
-      <c r="C4" s="141"/>
-      <c r="D4" s="141"/>
-      <c r="E4" s="141"/>
-      <c r="F4" s="141"/>
-      <c r="G4" s="142"/>
+      <c r="C4" s="121"/>
+      <c r="D4" s="121"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
+      <c r="G4" s="124"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="162" t="s">
         <v>136</v>
       </c>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
       <c r="G5" s="163"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B6" s="129"/>
+      <c r="B6" s="144"/>
       <c r="C6" s="104"/>
       <c r="D6" s="104"/>
       <c r="E6" s="104"/>
@@ -23979,7 +23979,7 @@
       <c r="G6" s="164"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B7" s="129"/>
+      <c r="B7" s="144"/>
       <c r="C7" s="104"/>
       <c r="D7" s="104"/>
       <c r="E7" s="104"/>
@@ -23988,7 +23988,7 @@
       <c r="I7" s="50"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B8" s="129"/>
+      <c r="B8" s="144"/>
       <c r="C8" s="104"/>
       <c r="D8" s="104"/>
       <c r="E8" s="104"/>
@@ -23996,7 +23996,7 @@
       <c r="G8" s="164"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B9" s="129"/>
+      <c r="B9" s="144"/>
       <c r="C9" s="104"/>
       <c r="D9" s="104"/>
       <c r="E9" s="104"/>
@@ -24004,7 +24004,7 @@
       <c r="G9" s="164"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
-      <c r="B10" s="129"/>
+      <c r="B10" s="144"/>
       <c r="C10" s="104"/>
       <c r="D10" s="104"/>
       <c r="E10" s="104"/>
@@ -24020,14 +24020,14 @@
       <c r="G11" s="167"/>
     </row>
     <row r="12" spans="1:10" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="B12" s="157" t="s">
+      <c r="B12" s="129" t="s">
         <v>135</v>
       </c>
-      <c r="C12" s="109"/>
-      <c r="D12" s="109"/>
-      <c r="E12" s="109"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="110"/>
+      <c r="C12" s="130"/>
+      <c r="D12" s="130"/>
+      <c r="E12" s="130"/>
+      <c r="F12" s="130"/>
+      <c r="G12" s="133"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="97" t="s">
@@ -24114,28 +24114,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="168" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
-      <c r="E1" s="171"/>
-      <c r="F1" s="171"/>
-      <c r="G1" s="171"/>
-      <c r="H1" s="171"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
+      <c r="E1" s="168"/>
+      <c r="F1" s="168"/>
+      <c r="G1" s="168"/>
+      <c r="H1" s="168"/>
       <c r="I1" s="11"/>
       <c r="J1" s="11"/>
     </row>
     <row r="2" spans="1:12" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="171"/>
-      <c r="B2" s="171"/>
-      <c r="C2" s="171"/>
-      <c r="D2" s="171"/>
-      <c r="E2" s="171"/>
-      <c r="F2" s="171"/>
-      <c r="G2" s="171"/>
-      <c r="H2" s="171"/>
+      <c r="A2" s="168"/>
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
       <c r="I2" s="11"/>
       <c r="J2" s="11"/>
     </row>
@@ -24156,10 +24156,10 @@
       <c r="H4" s="5"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="172" t="s">
+      <c r="A7" s="170" t="s">
         <v>239</v>
       </c>
-      <c r="B7" s="173"/>
+      <c r="B7" s="171"/>
       <c r="C7" s="98" t="s">
         <v>89</v>
       </c>
@@ -24177,150 +24177,150 @@
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="174" t="s">
+      <c r="A8" s="172" t="s">
         <v>256</v>
       </c>
-      <c r="B8" s="174"/>
-      <c r="C8" s="168" t="s">
+      <c r="B8" s="172"/>
+      <c r="C8" s="169" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="168" t="s">
+      <c r="D8" s="169" t="s">
         <v>146</v>
       </c>
-      <c r="E8" s="169" t="s">
+      <c r="E8" s="173" t="s">
         <v>140</v>
       </c>
-      <c r="F8" s="170">
+      <c r="F8" s="174">
         <f ca="1">TODAY()</f>
-        <v>44005</v>
-      </c>
-      <c r="G8" s="168"/>
+        <v>44006</v>
+      </c>
+      <c r="G8" s="169"/>
       <c r="J8" s="94"/>
       <c r="K8" s="94"/>
       <c r="L8" s="94"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="174"/>
-      <c r="B9" s="174"/>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
-      <c r="E9" s="169"/>
-      <c r="F9" s="170"/>
-      <c r="G9" s="168"/>
+      <c r="A9" s="172"/>
+      <c r="B9" s="172"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
+      <c r="E9" s="173"/>
+      <c r="F9" s="174"/>
+      <c r="G9" s="169"/>
       <c r="J9" s="94"/>
       <c r="K9" s="94"/>
       <c r="L9" s="94"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="174"/>
-      <c r="B10" s="174"/>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
-      <c r="E10" s="169"/>
-      <c r="F10" s="170"/>
-      <c r="G10" s="168"/>
+      <c r="A10" s="172"/>
+      <c r="B10" s="172"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
+      <c r="E10" s="173"/>
+      <c r="F10" s="174"/>
+      <c r="G10" s="169"/>
       <c r="J10" s="94"/>
       <c r="K10" s="94"/>
       <c r="L10" s="94"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="174"/>
-      <c r="B11" s="174"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="169"/>
-      <c r="F11" s="170"/>
-      <c r="G11" s="168"/>
+      <c r="A11" s="172"/>
+      <c r="B11" s="172"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
+      <c r="E11" s="173"/>
+      <c r="F11" s="174"/>
+      <c r="G11" s="169"/>
       <c r="J11" s="94"/>
       <c r="K11" s="94"/>
       <c r="L11" s="94"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="174"/>
-      <c r="B12" s="174"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="169"/>
-      <c r="F12" s="170"/>
-      <c r="G12" s="168"/>
+      <c r="A12" s="172"/>
+      <c r="B12" s="172"/>
+      <c r="C12" s="169"/>
+      <c r="D12" s="169"/>
+      <c r="E12" s="173"/>
+      <c r="F12" s="174"/>
+      <c r="G12" s="169"/>
       <c r="J12" s="94"/>
       <c r="K12" s="94"/>
       <c r="L12" s="94"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="174"/>
-      <c r="B13" s="174"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="169"/>
-      <c r="F13" s="170"/>
-      <c r="G13" s="168"/>
+      <c r="A13" s="172"/>
+      <c r="B13" s="172"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
+      <c r="E13" s="173"/>
+      <c r="F13" s="174"/>
+      <c r="G13" s="169"/>
       <c r="J13" s="94"/>
       <c r="K13" s="94"/>
       <c r="L13" s="94"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="174"/>
-      <c r="B14" s="174"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="169"/>
-      <c r="F14" s="170"/>
-      <c r="G14" s="168"/>
+      <c r="A14" s="172"/>
+      <c r="B14" s="172"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="169"/>
+      <c r="E14" s="173"/>
+      <c r="F14" s="174"/>
+      <c r="G14" s="169"/>
       <c r="J14" s="94"/>
       <c r="K14" s="94"/>
       <c r="L14" s="94"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="174"/>
-      <c r="B15" s="174"/>
-      <c r="C15" s="168"/>
-      <c r="D15" s="168"/>
-      <c r="E15" s="169"/>
-      <c r="F15" s="170"/>
-      <c r="G15" s="168"/>
+      <c r="A15" s="172"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="169"/>
+      <c r="D15" s="169"/>
+      <c r="E15" s="173"/>
+      <c r="F15" s="174"/>
+      <c r="G15" s="169"/>
       <c r="J15" s="94"/>
       <c r="K15" s="94"/>
       <c r="L15" s="94"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="174"/>
-      <c r="B16" s="174"/>
-      <c r="C16" s="168"/>
-      <c r="D16" s="168"/>
-      <c r="E16" s="169"/>
-      <c r="F16" s="170"/>
-      <c r="G16" s="168"/>
+      <c r="A16" s="172"/>
+      <c r="B16" s="172"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="169"/>
+      <c r="E16" s="173"/>
+      <c r="F16" s="174"/>
+      <c r="G16" s="169"/>
       <c r="J16" s="94"/>
       <c r="K16" s="94"/>
       <c r="L16" s="94"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="174"/>
-      <c r="B17" s="174"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="170"/>
-      <c r="G17" s="168"/>
+      <c r="A17" s="172"/>
+      <c r="B17" s="172"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="173"/>
+      <c r="F17" s="174"/>
+      <c r="G17" s="169"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="174"/>
-      <c r="B18" s="174"/>
-      <c r="C18" s="168"/>
-      <c r="D18" s="168"/>
-      <c r="E18" s="169"/>
-      <c r="F18" s="170"/>
-      <c r="G18" s="168"/>
+      <c r="A18" s="172"/>
+      <c r="B18" s="172"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="169"/>
+      <c r="E18" s="173"/>
+      <c r="F18" s="174"/>
+      <c r="G18" s="169"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="174"/>
-      <c r="B19" s="174"/>
-      <c r="C19" s="168"/>
-      <c r="D19" s="168"/>
-      <c r="E19" s="169"/>
-      <c r="F19" s="170"/>
-      <c r="G19" s="168"/>
+      <c r="A19" s="172"/>
+      <c r="B19" s="172"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="169"/>
+      <c r="E19" s="173"/>
+      <c r="F19" s="174"/>
+      <c r="G19" s="169"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="31" t="s">
@@ -24337,6 +24337,10 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="G8:G11"/>
+    <mergeCell ref="E12:E15"/>
+    <mergeCell ref="F12:F15"/>
+    <mergeCell ref="G12:G15"/>
     <mergeCell ref="A1:H2"/>
     <mergeCell ref="G16:G19"/>
     <mergeCell ref="A7:B7"/>
@@ -24353,10 +24357,6 @@
     <mergeCell ref="D12:D15"/>
     <mergeCell ref="E8:E11"/>
     <mergeCell ref="F8:F11"/>
-    <mergeCell ref="G8:G11"/>
-    <mergeCell ref="E12:E15"/>
-    <mergeCell ref="F12:F15"/>
-    <mergeCell ref="G12:G15"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24369,7 +24369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="A15" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
@@ -24384,35 +24384,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="33" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="114" t="s">
         <v>148</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="147"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="116"/>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="176" t="s">
+      <c r="B4" s="178" t="s">
         <v>142</v>
       </c>
-      <c r="C4" s="177"/>
-      <c r="D4" s="178"/>
+      <c r="C4" s="179"/>
+      <c r="D4" s="180"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="B6" s="176" t="s">
+      <c r="B6" s="178" t="s">
         <v>141</v>
       </c>
-      <c r="C6" s="177"/>
-      <c r="D6" s="178"/>
+      <c r="C6" s="179"/>
+      <c r="D6" s="180"/>
     </row>
     <row r="7" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B7" s="28"/>
@@ -24423,142 +24423,132 @@
       <c r="A8" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="176" t="s">
+      <c r="B8" s="178" t="s">
         <v>240</v>
       </c>
-      <c r="C8" s="177"/>
-      <c r="D8" s="178"/>
+      <c r="C8" s="179"/>
+      <c r="D8" s="180"/>
       <c r="E8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I8" s="176" t="s">
+      <c r="I8" s="178" t="s">
         <v>246</v>
       </c>
-      <c r="J8" s="177"/>
-      <c r="K8" s="178"/>
+      <c r="J8" s="179"/>
+      <c r="K8" s="180"/>
       <c r="L8" s="95" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="I9" s="180" t="s">
+      <c r="I9" s="181" t="s">
         <v>242</v>
       </c>
-      <c r="J9" s="154"/>
-      <c r="K9" s="181"/>
+      <c r="J9" s="126"/>
+      <c r="K9" s="182"/>
     </row>
     <row r="10" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A10" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="B10" s="176" t="s">
+      <c r="B10" s="178" t="s">
         <v>241</v>
       </c>
-      <c r="C10" s="177"/>
-      <c r="D10" s="178"/>
+      <c r="C10" s="179"/>
+      <c r="D10" s="180"/>
       <c r="E10" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="I10" s="182" t="s">
+      <c r="I10" s="183" t="s">
         <v>243</v>
       </c>
-      <c r="J10" s="183"/>
-      <c r="K10" s="184"/>
+      <c r="J10" s="184"/>
+      <c r="K10" s="185"/>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="I11" s="185" t="s">
+      <c r="I11" s="186" t="s">
         <v>244</v>
       </c>
-      <c r="J11" s="111"/>
-      <c r="K11" s="186"/>
+      <c r="J11" s="112"/>
+      <c r="K11" s="187"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="29" t="s">
         <v>118</v>
       </c>
-      <c r="B12" s="176"/>
-      <c r="C12" s="177"/>
-      <c r="D12" s="178"/>
-      <c r="I12" s="187" t="s">
+      <c r="B12" s="178"/>
+      <c r="C12" s="179"/>
+      <c r="D12" s="180"/>
+      <c r="I12" s="175" t="s">
         <v>245</v>
       </c>
-      <c r="J12" s="188"/>
-      <c r="K12" s="189"/>
+      <c r="J12" s="176"/>
+      <c r="K12" s="177"/>
     </row>
     <row r="13" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6"/>
     <row r="14" spans="1:13" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A14" s="29" t="s">
         <v>139</v>
       </c>
-      <c r="B14" s="176"/>
-      <c r="C14" s="177"/>
-      <c r="D14" s="178"/>
-      <c r="I14" s="176" t="s">
+      <c r="B14" s="178"/>
+      <c r="C14" s="179"/>
+      <c r="D14" s="180"/>
+      <c r="I14" s="178" t="s">
         <v>247</v>
       </c>
-      <c r="J14" s="177"/>
-      <c r="K14" s="178"/>
+      <c r="J14" s="179"/>
+      <c r="K14" s="180"/>
       <c r="L14" s="95" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="I15" s="180" t="s">
+      <c r="I15" s="181" t="s">
         <v>248</v>
       </c>
-      <c r="J15" s="154"/>
-      <c r="K15" s="181"/>
+      <c r="J15" s="126"/>
+      <c r="K15" s="182"/>
       <c r="L15" s="93"/>
       <c r="M15" s="93"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="50"/>
-      <c r="B16" s="179"/>
-      <c r="C16" s="179"/>
+      <c r="B16" s="189"/>
+      <c r="C16" s="189"/>
       <c r="D16" s="51"/>
-      <c r="I16" s="182" t="s">
+      <c r="I16" s="183" t="s">
         <v>249</v>
       </c>
-      <c r="J16" s="183"/>
-      <c r="K16" s="184"/>
+      <c r="J16" s="184"/>
+      <c r="K16" s="185"/>
       <c r="L16" s="93"/>
       <c r="M16" s="93"/>
     </row>
     <row r="17" spans="2:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="B17" s="175" t="s">
+      <c r="B17" s="188" t="s">
         <v>138</v>
       </c>
-      <c r="C17" s="175"/>
-      <c r="I17" s="185" t="s">
+      <c r="C17" s="188"/>
+      <c r="I17" s="186" t="s">
         <v>250</v>
       </c>
-      <c r="J17" s="111"/>
-      <c r="K17" s="186"/>
+      <c r="J17" s="112"/>
+      <c r="K17" s="187"/>
       <c r="L17" s="93"/>
       <c r="M17" s="93"/>
     </row>
     <row r="18" spans="2:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="30"/>
-      <c r="I18" s="187" t="s">
+      <c r="I18" s="175" t="s">
         <v>251</v>
       </c>
-      <c r="J18" s="188"/>
-      <c r="K18" s="189"/>
+      <c r="J18" s="176"/>
+      <c r="K18" s="177"/>
       <c r="L18" s="93"/>
       <c r="M18" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I18:K18"/>
-    <mergeCell ref="I14:K14"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I16:K16"/>
-    <mergeCell ref="I17:K17"/>
-    <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I9:K9"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B14:D14"/>
@@ -24568,6 +24558,16 @@
     <mergeCell ref="B8:D8"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B12:D12"/>
+    <mergeCell ref="I8:K8"/>
+    <mergeCell ref="I9:K9"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I18:K18"/>
+    <mergeCell ref="I14:K14"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I16:K16"/>
+    <mergeCell ref="I17:K17"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -24584,7 +24584,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" topLeftCell="C16" zoomScale="64" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="64" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
@@ -24597,15 +24597,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="33" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="145" t="s">
+      <c r="A1" s="114" t="s">
         <v>149</v>
       </c>
-      <c r="B1" s="146"/>
-      <c r="C1" s="146"/>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="147"/>
+      <c r="B1" s="115"/>
+      <c r="C1" s="115"/>
+      <c r="D1" s="115"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="116"/>
     </row>
     <row r="2" spans="1:9" ht="18.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="54"/>
@@ -24632,21 +24632,21 @@
       <c r="A5" s="56" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="176" t="s">
+      <c r="B5" s="178" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="177"/>
-      <c r="D5" s="178"/>
+      <c r="C5" s="179"/>
+      <c r="D5" s="180"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="176" t="s">
+      <c r="B7" s="178" t="s">
         <v>151</v>
       </c>
-      <c r="C7" s="177"/>
-      <c r="D7" s="178"/>
+      <c r="C7" s="179"/>
+      <c r="D7" s="180"/>
     </row>
     <row r="8" spans="1:9" ht="18.5" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B8" s="55"/>
@@ -24657,11 +24657,11 @@
       <c r="A9" s="56" t="s">
         <v>99</v>
       </c>
-      <c r="B9" s="176" t="s">
+      <c r="B9" s="178" t="s">
         <v>252</v>
       </c>
-      <c r="C9" s="177"/>
-      <c r="D9" s="178"/>
+      <c r="C9" s="179"/>
+      <c r="D9" s="180"/>
       <c r="E9" s="15" t="s">
         <v>1</v>
       </c>
@@ -24671,11 +24671,11 @@
       <c r="A11" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="176" t="s">
+      <c r="B11" s="178" t="s">
         <v>253</v>
       </c>
-      <c r="C11" s="177"/>
-      <c r="D11" s="178"/>
+      <c r="C11" s="179"/>
+      <c r="D11" s="180"/>
       <c r="E11" s="15" t="s">
         <v>1</v>
       </c>
@@ -24684,17 +24684,17 @@
       <c r="A13" s="56" t="s">
         <v>150</v>
       </c>
-      <c r="B13" s="176"/>
-      <c r="C13" s="177"/>
-      <c r="D13" s="178"/>
+      <c r="B13" s="178"/>
+      <c r="C13" s="179"/>
+      <c r="D13" s="180"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="56" t="s">
         <v>139</v>
       </c>
-      <c r="B15" s="176"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="178"/>
+      <c r="B15" s="178"/>
+      <c r="C15" s="179"/>
+      <c r="D15" s="180"/>
       <c r="I15" s="52"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -25736,19 +25736,19 @@
       <c r="I10" s="58" t="s">
         <v>200</v>
       </c>
-      <c r="J10" s="156" t="s">
+      <c r="J10" s="128" t="s">
         <v>177</v>
       </c>
-      <c r="K10" s="156"/>
-      <c r="L10" s="156"/>
-      <c r="M10" s="156"/>
-      <c r="N10" s="156"/>
-      <c r="O10" s="156"/>
-      <c r="P10" s="156"/>
-      <c r="Q10" s="156"/>
-      <c r="R10" s="156"/>
-      <c r="S10" s="156"/>
-      <c r="T10" s="156"/>
+      <c r="K10" s="128"/>
+      <c r="L10" s="128"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="128"/>
+      <c r="P10" s="128"/>
+      <c r="Q10" s="128"/>
+      <c r="R10" s="128"/>
+      <c r="S10" s="128"/>
+      <c r="T10" s="128"/>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="J11" s="79">
